--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Numéro</t>
   </si>
@@ -173,13 +173,22 @@
   </si>
   <si>
     <t>Chimie</t>
+  </si>
+  <si>
+    <t>Non traitée</t>
+  </si>
+  <si>
+    <t>LP restantes :</t>
+  </si>
+  <si>
+    <t>Fait par Martin ou faite mais non discutée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +238,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -262,13 +278,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -295,8 +312,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Avertissement" xfId="4" builtinId="11"/>
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,14 +627,16 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="81.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +657,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="G2" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,15 +673,18 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -665,7 +692,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -673,7 +700,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -681,7 +708,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -689,7 +716,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -708,7 +735,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -716,7 +743,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -724,7 +751,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -735,7 +762,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -743,7 +770,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -751,7 +778,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -770,7 +797,7 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -778,7 +805,7 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -797,7 +824,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -805,7 +832,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -813,7 +840,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -832,7 +859,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -840,15 +867,18 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -856,8 +886,14 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,7 +910,7 @@
       <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="3"/>
@@ -906,7 +942,7 @@
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="3"/>
@@ -972,7 +1008,7 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="3"/>
@@ -1004,7 +1040,7 @@
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="3"/>
@@ -1036,7 +1072,7 @@
       <c r="A36" s="1">
         <v>6</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="3"/>
@@ -1068,7 +1104,7 @@
       <c r="A37" s="1">
         <v>7</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="3"/>
@@ -1134,7 +1170,7 @@
       <c r="A39" s="1">
         <v>9</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="3"/>
@@ -1166,7 +1202,7 @@
       <c r="A40" s="1">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="3"/>
@@ -1198,7 +1234,7 @@
       <c r="A41" s="1">
         <v>11</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="3"/>
@@ -1230,7 +1266,7 @@
       <c r="A42" s="1">
         <v>12</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="3"/>
@@ -1262,7 +1298,7 @@
       <c r="A43" s="1">
         <v>13</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="3"/>
@@ -1294,7 +1330,7 @@
       <c r="A44" s="1">
         <v>14</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="3"/>
@@ -1360,7 +1396,7 @@
       <c r="A46" s="1">
         <v>16</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="3"/>
@@ -1392,7 +1428,7 @@
       <c r="A47" s="1">
         <v>17</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="3"/>
@@ -1424,7 +1460,7 @@
       <c r="A48" s="1">
         <v>18</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="3"/>
@@ -1456,7 +1492,7 @@
       <c r="A49" s="1">
         <v>19</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="3"/>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Numéro</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Fait par Martin ou faite mais non discutée</t>
+  </si>
+  <si>
+    <t>LC restantes :</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +896,7 @@
         <v>54</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,8 +1500,12 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Numéro</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>LC restantes :</t>
+  </si>
+  <si>
+    <t>Fait par Martin et moi</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +698,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -703,7 +706,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -711,7 +714,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -758,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,7 +884,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -889,7 +892,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E28" t="s">

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Numéro</t>
   </si>
@@ -312,9 +312,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,6 +319,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Avertissement" xfId="4" builtinId="11"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,18 +676,18 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -695,15 +695,18 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -711,10 +714,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -722,7 +725,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -741,20 +744,20 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -768,12 +771,12 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -784,12 +787,12 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -800,7 +803,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -811,12 +814,12 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -830,7 +833,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -838,7 +841,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -846,7 +849,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -865,7 +868,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -884,7 +887,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -892,7 +895,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E28" t="s">
@@ -907,7 +910,7 @@
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="4"/>
@@ -916,7 +919,7 @@
       <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="3"/>
@@ -948,7 +951,7 @@
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="3"/>
@@ -977,7 +980,7 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="13">
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1014,7 +1017,7 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="3"/>
@@ -1046,7 +1049,7 @@
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="3"/>
@@ -1078,7 +1081,7 @@
       <c r="A36" s="1">
         <v>6</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="3"/>
@@ -1110,7 +1113,7 @@
       <c r="A37" s="1">
         <v>7</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="3"/>
@@ -1139,7 +1142,7 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="13">
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1176,7 +1179,7 @@
       <c r="A39" s="1">
         <v>9</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="3"/>
@@ -1208,7 +1211,7 @@
       <c r="A40" s="1">
         <v>10</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="3"/>
@@ -1240,7 +1243,7 @@
       <c r="A41" s="1">
         <v>11</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="3"/>
@@ -1272,7 +1275,7 @@
       <c r="A42" s="1">
         <v>12</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="3"/>
@@ -1304,7 +1307,7 @@
       <c r="A43" s="1">
         <v>13</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="3"/>
@@ -1336,7 +1339,7 @@
       <c r="A44" s="1">
         <v>14</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="3"/>
@@ -1402,7 +1405,7 @@
       <c r="A46" s="1">
         <v>16</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="3"/>
@@ -1434,7 +1437,7 @@
       <c r="A47" s="1">
         <v>17</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="3"/>
@@ -1466,7 +1469,7 @@
       <c r="A48" s="1">
         <v>18</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="3"/>
@@ -1498,7 +1501,7 @@
       <c r="A49" s="1">
         <v>19</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="3"/>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Numéro</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Fait par Martin et moi</t>
+  </si>
+  <si>
+    <t>16+1</t>
+  </si>
+  <si>
+    <t>9+3</t>
   </si>
 </sst>
 </file>
@@ -291,7 +297,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -321,6 +327,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -633,7 +643,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,10 +732,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -744,7 +754,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -771,7 +781,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -884,10 +894,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="13">
         <v>24</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -901,8 +911,8 @@
       <c r="E28" t="s">
         <v>54</v>
       </c>
-      <c r="F28">
-        <v>14</v>
+      <c r="F28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,8 +1519,8 @@
       <c r="E49" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="3">
-        <v>16</v>
+      <c r="F49" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -193,7 +193,7 @@
     <t>16+1</t>
   </si>
   <si>
-    <t>9+3</t>
+    <t>8+3</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -329,9 +329,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Avertissement" xfId="4" builtinId="11"/>
@@ -643,7 +640,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +748,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -190,10 +190,10 @@
     <t>Fait par Martin et moi</t>
   </si>
   <si>
-    <t>16+1</t>
-  </si>
-  <si>
-    <t>8+3</t>
+    <t>7+3</t>
+  </si>
+  <si>
+    <t>15+2</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,10 +818,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="13">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -909,7 +909,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
       <c r="A43" s="1">
         <v>13</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="3"/>
@@ -1517,7 +1517,7 @@
         <v>56</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -329,6 +329,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Avertissement" xfId="4" builtinId="11"/>
@@ -640,7 +643,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +843,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -848,7 +851,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -856,7 +859,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="15" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -190,10 +190,10 @@
     <t>Fait par Martin et moi</t>
   </si>
   <si>
-    <t>7+3</t>
-  </si>
-  <si>
     <t>15+2</t>
+  </si>
+  <si>
+    <t>6+3</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,18 +840,18 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="13">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="13">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -912,7 +912,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>56</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Numéro</t>
   </si>
@@ -193,7 +193,7 @@
     <t>15+2</t>
   </si>
   <si>
-    <t>6+3</t>
+    <t>4+3</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -329,9 +329,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Avertissement" xfId="4" builtinId="11"/>
@@ -642,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +689,7 @@
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="9"/>
       <c r="G4" s="12" t="s">
         <v>53</v>
       </c>
@@ -703,6 +701,7 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -784,6 +783,7 @@
       <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -859,7 +859,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -900,14 +900,16 @@
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="13">
         <v>25</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="D28" s="9"/>
       <c r="E28" t="s">
         <v>54</v>
       </c>
@@ -1320,7 +1322,9 @@
       <c r="B43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -193,7 +193,7 @@
     <t>15+2</t>
   </si>
   <si>
-    <t>4+3</t>
+    <t>3+3</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -328,7 +328,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Avertissement" xfId="4" builtinId="11"/>
@@ -639,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,10 +776,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="13">
         <v>11</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="9"/>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -193,7 +193,7 @@
     <t>15+2</t>
   </si>
   <si>
-    <t>3+3</t>
+    <t>2+3</t>
   </si>
 </sst>
 </file>
@@ -793,10 +793,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Leçons/Leçons.xlsx
+++ b/Leçons/Leçons.xlsx
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
